--- a/target/test-classes/TestData/TestData.xlsx
+++ b/target/test-classes/TestData/TestData.xlsx
@@ -4,57 +4,66 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17856" windowHeight="7884"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16908" windowHeight="7884"/>
   </bookViews>
   <sheets>
-    <sheet name="Credentials" sheetId="2" r:id="rId1"/>
+    <sheet name="AddNewEmployee" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O25"/>
+  <oleSize ref="A1:Q25"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
-    <t>Admin</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Mtest1</t>
+  </si>
+  <si>
+    <t>Ftest1</t>
+  </si>
+  <si>
+    <t>Ltest1</t>
+  </si>
+  <si>
+    <t>Ftest2</t>
+  </si>
+  <si>
+    <t>Mtest2</t>
+  </si>
+  <si>
+    <t>Ltest2</t>
+  </si>
+  <si>
+    <t>Ftest3</t>
+  </si>
+  <si>
+    <t>Mtest3</t>
+  </si>
+  <si>
+    <t>Ltest3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,7 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -73,36 +82,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -405,39 +392,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>